--- a/biology/Biologie cellulaire et moléculaire/Mélanosome/Mélanosome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Mélanosome/Mélanosome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lanosome</t>
+          <t>Mélanosome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélanosome est un organite intracellulaire, parent des lysosomes et des granules des plaquettes sanguines, à l'intérieur duquel sont fabriquées les mélanines, pigments protégeant la peau des radiations solaires dans le règne animal.
 Il est produit dans les mélanocytes. Entouré d'une membrane lipidique, sa forme, constante pour une espèce et un type cellulaire donné, varie d'arrondie à allongée. On peut reconnaître le degré de maturation des mélanosomes en observant leur ultrastructure au microscope électronique. Dans certaines espèces (dont l'espèce humaine), les mélanosomes ne restent pas dans les mélanocytes, mais sont évacués en direction des kératinocytes le long de bras ressemblant un peu aux dendrites des neurones (les mélanocytes sont d'origine neurale), dans lesquelles ils se déplacent portés par la kinésine le long d'un système de microtubules. Ce transport peut être déclenché ou intensifié par certains facteurs : intensité des radiations ultraviolettes (bronzage chez l'homme), facteurs hormonaux ou neuraux (changements de couleur liés à l'environnement ou aux émotions/comportements chez certains poissons, crustacés et amphibiens). 
